--- a/CSV/refinedkeywords_metaclasses_chatgpt.xlsx
+++ b/CSV/refinedkeywords_metaclasses_chatgpt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C500D41C-66E8-4317-A337-FA2321B89878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966DAF07-63BC-41E6-B2AF-102A90BF9350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1321">
   <si>
     <t>Keyword</t>
   </si>
@@ -3985,6 +3985,9 @@
   </si>
   <si>
     <t>demographic</t>
+  </si>
+  <si>
+    <t>Data set</t>
   </si>
 </sst>
 </file>
@@ -4254,10 +4257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867F4740-3741-4244-AD95-EAB09C234922}">
-  <dimension ref="A1:C855"/>
+  <dimension ref="A1:C856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A823" workbookViewId="0">
-      <selection activeCell="C842" sqref="C842"/>
+    <sheetView tabSelected="1" topLeftCell="A826" workbookViewId="0">
+      <selection activeCell="C857" sqref="C857"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13672,6 +13675,17 @@
         <v>1289</v>
       </c>
     </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A856" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B856" t="s">
+        <v>984</v>
+      </c>
+      <c r="C856" t="s">
+        <v>1288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/CSV/refinedkeywords_metaclasses_chatgpt.xlsx
+++ b/CSV/refinedkeywords_metaclasses_chatgpt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966DAF07-63BC-41E6-B2AF-102A90BF9350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F03656B-0597-4E54-978B-FC528D0044FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="1320">
   <si>
     <t>Keyword</t>
   </si>
@@ -3985,9 +3985,6 @@
   </si>
   <si>
     <t>demographic</t>
-  </si>
-  <si>
-    <t>Data set</t>
   </si>
 </sst>
 </file>
@@ -4259,8 +4256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867F4740-3741-4244-AD95-EAB09C234922}">
   <dimension ref="A1:C856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A826" workbookViewId="0">
-      <selection activeCell="C857" sqref="C857"/>
+    <sheetView tabSelected="1" topLeftCell="A840" workbookViewId="0">
+      <selection activeCell="B858" sqref="B858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13676,15 +13673,7 @@
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A856" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B856" t="s">
-        <v>984</v>
-      </c>
-      <c r="C856" t="s">
-        <v>1288</v>
-      </c>
+      <c r="A856" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
